--- a/data/math/math-94.xlsx
+++ b/data/math/math-94.xlsx
@@ -464,10 +464,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            u /= 2;
+</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>0.05000</t>
@@ -488,10 +493,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            v /= 2;
+</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>0.05000</t>
@@ -512,10 +522,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            k++; // cast out twos.
+</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>0.05000</t>
@@ -536,10 +551,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                u = -t;
+</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>0.03448</t>
@@ -560,10 +580,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                t /= 2; // cast out twos
+</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0.03030</t>
@@ -584,17 +609,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (u * v == 0) {
+</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>0.02222</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +638,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return (Math.abs(u) + Math.abs(v));
+</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -632,10 +667,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (u &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -656,10 +696,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            u = -u;
+</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -680,10 +725,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (v &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -704,10 +754,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            v = -v;
+</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -728,10 +783,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int k = 0;
+</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -752,10 +812,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        while ((u &amp; 1) == 0 &amp;&amp; (v &amp; 1) == 0 &amp;&amp; k &lt; 31) { // while u and v are
+</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -776,10 +841,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (k == 31) {
+</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -800,10 +870,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int t = ((u &amp; 1) == 1) ? v : -(u / 2)/* B3 */;
+</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -824,10 +899,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            while ((t &amp; 1) == 0) { // while t is even..
+</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -848,10 +928,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (t &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -872,10 +957,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                v = t;
+</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -896,10 +986,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            t = (v - u) / 2;
+</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -920,10 +1015,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } while (t != 0);
+</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -944,10 +1044,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return -u * (1 &lt;&lt; k); // gcd is u*2^k
+</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>0.02222</t>
@@ -968,10 +1073,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super();
+</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -992,10 +1102,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1016,10 +1131,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long s = (long)x + (long)y;
+</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1040,10 +1160,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (s &lt; Integer.MIN_VALUE || s &gt; Integer.MAX_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1064,10 +1189,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException("overflow: add");
+</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1088,10 +1218,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (int)s;
+</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1112,10 +1247,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return addAndCheck(a, b, "overflow: add");
+</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1136,10 +1276,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (a &gt; b) {
+</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1160,10 +1305,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = addAndCheck(b, a, msg);
+</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1184,10 +1334,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (a &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1208,10 +1363,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (b &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1232,10 +1392,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if (Long.MIN_VALUE - b &lt;= a) {
+</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1256,10 +1421,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        ret = a + b;
+</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1280,10 +1450,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1304,10 +1479,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ret = a + b;
+</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1328,10 +1508,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (a &lt;= Long.MAX_VALUE - b) {
+</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1352,10 +1537,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ret = a + b;
+</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1376,10 +1566,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1400,10 +1595,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1424,10 +1624,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; k) {
+</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1448,10 +1653,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1472,10 +1682,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1496,10 +1711,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1520,10 +1740,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((n == k) || (k == 0)) {
+</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1544,10 +1769,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return 1;
+</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1568,10 +1798,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((k == 1) || (k == n - 1)) {
+</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1592,10 +1827,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return n;
+</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1616,10 +1856,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long result = Math.round(binomialCoefficientDouble(n, k));
+</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1640,10 +1885,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (result == Long.MAX_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1664,10 +1914,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException(
+</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1688,10 +1943,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return result;
+</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1712,10 +1972,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Math.floor(Math.exp(binomialCoefficientLog(n, k)) + 0.5);
+</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1736,10 +2001,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; k) {
+</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1760,10 +2030,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1784,10 +2059,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1808,10 +2088,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException(
+</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1832,10 +2117,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((n == k) || (k == 0)) {
+</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1856,10 +2146,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return 0;
+</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1880,10 +2175,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((k == 1) || (k == n - 1)) {
+</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1904,10 +2204,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Math.log((double)n);
+</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1928,10 +2233,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double logSum = 0;
+</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1952,10 +2262,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for (int i = k + 1; i &lt;= n; i++) {
+</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1976,10 +2291,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            logSum += Math.log((double)i);
+</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2000,10 +2320,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for (int i = 2; i &lt;= n - k; i++) {
+</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2024,10 +2349,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            logSum -= Math.log((double)i);
+</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2048,10 +2378,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return logSum;
+</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2072,10 +2407,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (Math.exp(x) + Math.exp(-x)) / 2.0;
+</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2096,10 +2436,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ((Double.isNaN(x) &amp;&amp; Double.isNaN(y)) || x == y);
+</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2120,10 +2465,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((x == null) || (y == null)) {
+</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2144,10 +2494,15 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return !((x == null) ^ (y == null));
+</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2168,10 +2523,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (x.length != y.length) {
+</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2192,10 +2552,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return false;
+</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2216,10 +2581,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for (int i = 0; i &lt; x.length; ++i) {
+</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2240,10 +2610,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (!equals(x[i], y[i])) {
+</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2264,10 +2639,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return false;
+</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2288,10 +2668,15 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return true;
+</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2312,10 +2697,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long result = Math.round(factorialDouble(n));
+</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2336,10 +2726,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (result == Long.MAX_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2360,10 +2755,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException(
+</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2384,10 +2784,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return result;
+</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2408,10 +2813,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2432,10 +2842,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("must have n &gt;= 0 for n!");
+</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2456,10 +2871,15 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Math.floor(Math.exp(factorialLog(n)) + 0.5);
+</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2480,10 +2900,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2504,10 +2929,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("must have n &gt; 0 for n!");
+</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2528,10 +2958,15 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double logSum = 0;
+</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2552,10 +2987,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for (int i = 2; i &lt;= n; i++) {
+</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2576,10 +3016,15 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            logSum += Math.log((double)i);
+</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2600,10 +3045,15 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return logSum;
+</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2624,10 +3074,15 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException("overflow: gcd is 2^31");
+</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2648,10 +3103,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new Double(value).hashCode();
+</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2672,10 +3132,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Arrays.hashCode(value);
+</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2696,10 +3161,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= ZB) ? PB : NB;
+</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2720,10 +3190,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Double.isNaN(x)) {
+</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2744,10 +3219,15 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2768,10 +3248,15 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= 0.0) ? 1.0 : -1.0;
+</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2792,10 +3277,15 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Float.isNaN(x)) {
+</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2816,10 +3306,15 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Float.NaN;
+</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2840,10 +3335,15 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= 0.0F) ? 1.0F : -1.0F;
+</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2864,10 +3364,15 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= 0) ? 1 : -1;
+</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2888,10 +3393,15 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= 0L) ? 1L : -1L;
+</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2912,10 +3422,15 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x &gt;= ZS) ? PS : NS;
+</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2936,10 +3451,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>564</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Math.abs(mulAndCheck(a / gcd(a, b), b));
+</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2960,10 +3480,15 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Math.log(x)/Math.log(base);
+</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2984,10 +3509,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long m = ((long)x) * ((long)y);
+</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3008,10 +3538,15 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (m &lt; Integer.MIN_VALUE || m &gt; Integer.MAX_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3032,10 +3567,15 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException("overflow: mul");
+</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3056,10 +3596,15 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (int)m;
+</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3080,10 +3625,15 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        String msg = "overflow: multiply";
+</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3104,10 +3654,15 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (a &gt; b) {
+</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3128,10 +3683,15 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = mulAndCheck(b, a);
+</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3152,10 +3712,15 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (a &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3176,10 +3741,15 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (b &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3200,10 +3770,15 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if (a &gt;= Long.MAX_VALUE / b) {
+</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3224,10 +3799,15 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        ret = a * b;
+</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3248,10 +3828,15 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3272,10 +3857,15 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                } else if (b &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3296,10 +3886,15 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if (Long.MIN_VALUE / b &lt;= a) {
+</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3320,10 +3915,15 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        ret = a * b;
+</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3344,10 +3944,15 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3368,10 +3973,15 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ret = 0;
+</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3392,10 +4002,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            } else if (a &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3416,10 +4031,15 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (a &lt;= Long.MAX_VALUE / b) {
+</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3440,10 +4060,15 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ret = a * b;
+</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3464,10 +4089,15 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3488,10 +4118,15 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ret = 0;
+</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3512,10 +4147,15 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3536,10 +4176,15 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Double.isNaN(d) || Double.isInfinite(d)) {
+</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3560,10 +4205,15 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return d;
+</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3584,10 +4234,15 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (d == 0) {
+</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3608,10 +4263,15 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return (direction &lt; 0) ? -Double.MIN_VALUE : Double.MIN_VALUE;
+</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3632,10 +4292,15 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long bits     = Double.doubleToLongBits(d);
+</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3656,10 +4321,15 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long sign     = bits &amp; 0x8000000000000000L;
+</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3680,10 +4350,15 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long exponent = bits &amp; 0x7ff0000000000000L;
+</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3704,10 +4379,15 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long mantissa = bits &amp; 0x000fffffffffffffL;
+</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3728,10 +4408,15 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (d * (direction - d) &gt;= 0) {
+</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3752,10 +4437,15 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (mantissa == 0x000fffffffffffffL) {
+</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3776,10 +4466,15 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        return Double.longBitsToDouble(sign |
+</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3800,10 +4495,15 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        return Double.longBitsToDouble(sign |
+</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3824,10 +4524,15 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (mantissa == 0L) {
+</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3848,10 +4553,15 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        return Double.longBitsToDouble(sign |
+</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3872,10 +4582,15 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        return Double.longBitsToDouble(sign |
+</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3896,10 +4611,15 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if ((d == 0) || Double.isNaN(d) || Double.isInfinite(d)) {
+</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3920,10 +4640,15 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return d;
+</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3944,10 +4669,15 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        final long bits     = Double.doubleToLongBits(d);
+</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3968,10 +4698,15 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        final long exponent = bits &amp; 0x7ff0000000000000L;
+</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3992,10 +4727,15 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        final long rest     = bits &amp; 0x800fffffffffffffL;
+</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4016,10 +4756,15 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>739</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        final long newBits = rest | (exponent + (((long) scaleFactor) &lt;&lt; 52));
+</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4040,10 +4785,15 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Double.longBitsToDouble(newBits);
+</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4064,10 +4814,15 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         return a - TWO_PI * Math.floor((a + Math.PI - center) / TWO_PI);
+</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4088,10 +4843,15 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return round(x, scale, BigDecimal.ROUND_HALF_UP);
+</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4112,10 +4872,15 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return (new BigDecimal
+</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4136,10 +4901,15 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } catch (NumberFormatException ex) {
+</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4160,10 +4930,15 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (Double.isInfinite(x)) {
+</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4184,10 +4959,15 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return x;          
+</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4208,10 +4988,15 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4232,10 +5017,15 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return round(x, scale, BigDecimal.ROUND_HALF_UP);
+</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4256,10 +5046,15 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        float sign = indicator(x);
+</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4280,10 +5075,15 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>834</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        float factor = (float)Math.pow(10.0f, scale) * sign;
+</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4304,10 +5104,15 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (float)roundUnscaled(x * factor, sign, roundingMethod) / factor;
+</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4328,10 +5133,15 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>852</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        switch (roundingMethod) {
+</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4352,10 +5162,15 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (sign == -1) {
+</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4376,10 +5191,15 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.floor(nextAfter(unscaled, Double.NEGATIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4400,10 +5220,15 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.ceil(nextAfter(unscaled, Double.POSITIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4424,10 +5249,15 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4448,10 +5278,15 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            unscaled = Math.floor(nextAfter(unscaled, Double.NEGATIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4472,10 +5307,15 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4496,10 +5336,15 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
+          <t>864</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (sign == -1) {
+</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4520,10 +5365,15 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.ceil(nextAfter(unscaled, Double.POSITIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4544,10 +5394,15 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.floor(nextAfter(unscaled, Double.NEGATIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4568,10 +5423,15 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4592,10 +5452,15 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            unscaled = nextAfter(unscaled, Double.NEGATIVE_INFINITY);
+</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4616,10 +5481,15 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>174</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double fraction = unscaled - Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4640,10 +5510,15 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (fraction &gt; 0.5) {
+</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4664,10 +5539,15 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>176</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.ceil(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4688,10 +5568,15 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4712,10 +5597,15 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4736,10 +5626,15 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double fraction = unscaled - Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4760,10 +5655,15 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+          <t>882</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (fraction &gt; 0.5) {
+</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4784,10 +5684,15 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.ceil(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4808,10 +5713,15 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            } else if (fraction &lt; 0.5) {
+</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4832,10 +5742,15 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4856,10 +5771,15 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (Math.floor(unscaled) / 2.0 == Math.floor(Math
+</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4880,10 +5800,15 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    unscaled = Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4904,10 +5829,15 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    unscaled = Math.ceil(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4928,10 +5858,15 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4952,10 +5887,15 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            unscaled = nextAfter(unscaled, Double.POSITIVE_INFINITY);
+</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4976,10 +5916,15 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double fraction = unscaled - Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5000,10 +5945,15 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (fraction &gt;= 0.5) {
+</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5024,10 +5974,15 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.ceil(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5048,10 +6003,15 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                unscaled = Math.floor(unscaled);
+</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5072,10 +6032,15 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5096,10 +6061,15 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>194</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (unscaled != Math.floor(unscaled)) {
+</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5120,10 +6090,15 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                throw new ArithmeticException("Inexact result from rounding");
+</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5144,10 +6119,15 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            unscaled = Math.ceil(nextAfter(unscaled,  Double.POSITIVE_INFINITY));
+</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5168,10 +6148,15 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            break;
+</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5192,10 +6177,15 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("Invalid rounding method.");
+</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5216,10 +6206,15 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return unscaled;
+</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5240,10 +6235,15 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == ZB) ? ZB : (x &gt; ZB) ? PB : NB;
+</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5264,10 +6264,15 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>948</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Double.isNaN(x)) {
+</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5288,10 +6293,15 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>202</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+          <t>949</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5312,10 +6322,15 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>203</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == 0.0) ? 0.0 : (x &gt; 0.0) ? 1.0 : -1.0;
+</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5336,10 +6351,15 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Float.isNaN(x)) {
+</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5360,10 +6380,15 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>205</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Float.NaN;
+</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5384,10 +6409,15 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == 0.0F) ? 0.0F : (x &gt; 0.0F) ? 1.0F : -1.0F;
+</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5408,10 +6438,15 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>207</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == 0) ? 0 : (x &gt; 0) ? 1 : -1;
+</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5432,10 +6467,15 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>208</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == 0L) ? 0L : (x &gt; 0L) ? 1L : -1L;
+</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5456,10 +6496,15 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>209</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (x == ZS) ? ZS : (x &gt; ZS) ? PS : NS;
+</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5480,10 +6525,15 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (Math.exp(x) - Math.exp(-x)) / 2.0;
+</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5504,10 +6554,15 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
+          <t>1037</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long s = (long)x - (long)y;
+</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5528,10 +6583,15 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (s &lt; Integer.MIN_VALUE || s &gt; Integer.MAX_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5552,10 +6612,15 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
+          <t>1039</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new ArithmeticException("overflow: subtract");
+</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5576,10 +6641,15 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>214</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (int)s;
+</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5600,10 +6670,15 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>215</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        String msg = "overflow: subtract";
+</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5624,10 +6699,15 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
+          <t>1057</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (b == Long.MIN_VALUE) {
+</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5648,10 +6728,15 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (a &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5672,10 +6757,15 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ret = a - b;
+</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5696,10 +6786,15 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>219</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                throw new ArithmeticException(msg);
+</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5720,10 +6815,15 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>220</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = addAndCheck(a, -b, msg);
+</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -5744,10 +6844,15 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr"/>
+          <t>1067</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
           <t>0.00000</t>
